--- a/Processing/Demographics.Facebook.Processing/Data/1-IBOPE-20180624-Haddad.xlsx
+++ b/Processing/Demographics.Facebook.Processing/Data/1-IBOPE-20180624-Haddad.xlsx
@@ -590,49 +590,49 @@
         <v>26</v>
       </c>
       <c r="B10" s="1">
-        <v>0.0</v>
+        <v>3.22</v>
       </c>
       <c r="C10" s="1">
-        <v>0.0</v>
+        <v>40.90909091</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0</v>
+        <v>59.09090909</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0</v>
+        <v>14.9068323</v>
       </c>
       <c r="F10" s="1">
-        <v>0.0</v>
+        <v>14.28571429</v>
       </c>
       <c r="G10" s="1">
-        <v>0.0</v>
+        <v>13.04347826</v>
       </c>
       <c r="H10" s="1">
-        <v>0.0</v>
+        <v>16.77018634</v>
       </c>
       <c r="I10" s="1">
-        <v>0.0</v>
+        <v>40.99378882</v>
       </c>
       <c r="J10" s="1">
-        <v>0.0</v>
+        <v>41.76470588</v>
       </c>
       <c r="K10" s="1">
-        <v>0.0</v>
+        <v>33.52941176</v>
       </c>
       <c r="L10" s="1">
-        <v>0.0</v>
+        <v>24.70588235</v>
       </c>
       <c r="M10" s="1">
-        <v>0.0</v>
+        <v>25.95870206</v>
       </c>
       <c r="N10" s="1">
-        <v>0.0</v>
+        <v>53.09734513</v>
       </c>
       <c r="O10" s="1">
-        <v>0.0</v>
+        <v>7.669616519</v>
       </c>
       <c r="P10" s="1">
-        <v>0.0</v>
+        <v>13.27433628</v>
       </c>
     </row>
     <row r="11">
